--- a/Documentazione/Costi/Function Points/TabellaCalcoloFP_180419.xlsx
+++ b/Documentazione/Costi/Function Points/TabellaCalcoloFP_180419.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DF4FC6-9032-48BA-8B5E-6DD0DBE13451}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9C97EE-D1B1-4F7F-8EA9-A753509222CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,13 +478,13 @@
     <t xml:space="preserve">VAF = 0.65 + 0.12 = </t>
   </si>
   <si>
-    <t>Function Points =</t>
-  </si>
-  <si>
     <t>03/04/2019</t>
   </si>
   <si>
     <t>Calcolo Function Points CALENDARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function Points = </t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -601,69 +601,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -678,8 +721,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -687,62 +756,142 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1251,10 +1400,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB59"/>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S65" sqref="S65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1266,34 +1415,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="11" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="29" t="s">
         <v>150</v>
+      </c>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
@@ -1304,64 +1453,64 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="30"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="13"/>
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="50" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="51" t="s">
+      <c r="R3" s="27"/>
+      <c r="S3" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="T3" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="U3" s="52" t="s">
+      <c r="U3" s="18" t="s">
         <v>139</v>
       </c>
       <c r="X3" s="1"/>
@@ -1371,43 +1520,43 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="39" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="53" t="s">
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="R4" s="53"/>
-      <c r="S4" s="54" t="s">
+      <c r="R4" s="26"/>
+      <c r="S4" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="T4" s="55" t="s">
+      <c r="T4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="56" t="s">
+      <c r="U4" s="21" t="s">
         <v>142</v>
       </c>
       <c r="X4" s="1"/>
@@ -1417,43 +1566,43 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="66">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="44" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="53" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="R5" s="53"/>
-      <c r="S5" s="54" t="s">
+      <c r="R5" s="26"/>
+      <c r="S5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="T5" s="55" t="s">
+      <c r="T5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="56" t="s">
+      <c r="U5" s="21" t="s">
         <v>143</v>
       </c>
       <c r="X5" s="1"/>
@@ -1463,43 +1612,43 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="44" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="53" t="s">
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="R6" s="53"/>
-      <c r="S6" s="54" t="s">
+      <c r="R6" s="26"/>
+      <c r="S6" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="T6" s="55" t="s">
+      <c r="T6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="56" t="s">
+      <c r="U6" s="21" t="s">
         <v>144</v>
       </c>
       <c r="X6" s="1"/>
@@ -1509,35 +1658,35 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="44" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="53" t="s">
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="R7" s="53"/>
-      <c r="S7" s="54" t="s">
+      <c r="R7" s="26"/>
+      <c r="S7" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="T7" s="55" t="s">
+      <c r="T7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="U7" s="56" t="s">
+      <c r="U7" s="21" t="s">
         <v>143</v>
       </c>
       <c r="X7" s="1"/>
@@ -1547,39 +1696,39 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="44" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="53" t="s">
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="R8" s="53"/>
-      <c r="S8" s="54" t="s">
+      <c r="R8" s="26"/>
+      <c r="S8" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="T8" s="55" t="s">
+      <c r="T8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="56" t="s">
+      <c r="U8" s="21" t="s">
         <v>144</v>
       </c>
       <c r="X8" s="1"/>
@@ -1589,285 +1738,285 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="44" t="s">
+      <c r="E9" s="37"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="23"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="7"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="44" t="s">
+      <c r="E11" s="37"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="39" t="s">
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="38" t="s">
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="44" t="s">
+      <c r="E12" s="37"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="22" t="s">
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="22" t="s">
+      <c r="R12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="40" t="s">
+      <c r="S12" s="3"/>
+      <c r="T12" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="21" t="s">
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="44" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="22" t="s">
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="26" t="s">
+      <c r="R13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="19" t="s">
+      <c r="S13" s="3"/>
+      <c r="T13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="U13" s="37" t="s">
+      <c r="U13" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="24">
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="8">
         <v>0</v>
       </c>
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="22" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="26" t="s">
+      <c r="R14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="19" t="s">
+      <c r="S14" s="3"/>
+      <c r="T14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="U14" s="37" t="s">
+      <c r="U14" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="24">
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="8">
         <v>0</v>
       </c>
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="44" t="s">
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="22" t="s">
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R15" s="26" t="s">
+      <c r="R15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="S15" s="11"/>
-      <c r="T15" s="19" t="s">
+      <c r="S15" s="3"/>
+      <c r="T15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="U15" s="37" t="s">
+      <c r="U15" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="24">
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="8">
         <v>0</v>
       </c>
       <c r="Y15" s="1"/>
@@ -1875,48 +2024,48 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="37" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="22" t="s">
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R16" s="26" t="s">
+      <c r="R16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="S16" s="11"/>
-      <c r="T16" s="19" t="s">
+      <c r="S16" s="3"/>
+      <c r="T16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="U16" s="37" t="s">
+      <c r="U16" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="24">
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="8">
         <v>1</v>
       </c>
       <c r="Y16" s="1"/>
@@ -1924,48 +2073,48 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="37" t="s">
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="22" t="s">
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R17" s="26" t="s">
+      <c r="R17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="S17" s="11"/>
-      <c r="T17" s="19" t="s">
+      <c r="S17" s="3"/>
+      <c r="T17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="U17" s="37" t="s">
+      <c r="U17" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="24">
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="8">
         <v>1</v>
       </c>
       <c r="Y17" s="1"/>
@@ -1973,47 +2122,47 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="22" t="s">
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="R18" s="26">
+      <c r="R18" s="9">
         <f xml:space="preserve"> SUM(3*R13,4*R14,3*R15,7*R16,5*R17)</f>
         <v>51</v>
       </c>
-      <c r="S18" s="11"/>
-      <c r="T18" s="19" t="s">
+      <c r="S18" s="3"/>
+      <c r="T18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="U18" s="37" t="s">
+      <c r="U18" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="24">
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="8">
         <v>0</v>
       </c>
       <c r="Y18" s="1"/>
@@ -2021,34 +2170,34 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="19" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="U19" s="37" t="s">
+      <c r="U19" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="24">
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="8">
         <v>4</v>
       </c>
       <c r="Y19" s="1"/>
@@ -2056,38 +2205,38 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="37" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="19" t="s">
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="U20" s="37" t="s">
+      <c r="U20" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="24">
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="8">
         <v>0</v>
       </c>
       <c r="Y20" s="1"/>
@@ -2095,36 +2244,36 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="49" t="s">
+      <c r="A21" s="75"/>
+      <c r="B21" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="19" t="s">
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="U21" s="37" t="s">
+      <c r="U21" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="24">
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="8">
         <v>0</v>
       </c>
       <c r="Y21" s="1"/>
@@ -2132,40 +2281,44 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="19" t="s">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="U22" s="37" t="s">
+      <c r="U22" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="24">
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="8">
         <v>1</v>
       </c>
       <c r="Y22" s="1"/>
@@ -2173,38 +2326,42 @@
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="19" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="U23" s="37" t="s">
+      <c r="U23" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="24">
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="8">
         <v>1</v>
       </c>
       <c r="Y23" s="1"/>
@@ -2212,38 +2369,42 @@
       <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="19" t="s">
+      <c r="E24" s="36"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="U24" s="37" t="s">
+      <c r="U24" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="24">
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="8">
         <v>1</v>
       </c>
       <c r="Y24" s="1"/>
@@ -2251,38 +2412,42 @@
       <c r="AB24" s="1"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="19" t="s">
+      <c r="E25" s="36"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="U25" s="37" t="s">
+      <c r="U25" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="24">
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="8">
         <v>0</v>
       </c>
       <c r="Y25" s="1"/>
@@ -2290,38 +2455,42 @@
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="19" t="s">
+      <c r="E26" s="36"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="U26" s="37" t="s">
+      <c r="U26" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="24">
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="8">
         <v>3</v>
       </c>
       <c r="Y26" s="1"/>
@@ -2329,79 +2498,91 @@
       <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="21" t="s">
+      <c r="E27" s="36"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U27" s="23">
+      <c r="U27" s="7">
         <f>SUM(X12:X26)</f>
         <v>12</v>
       </c>
-      <c r="V27" s="35" t="s">
+      <c r="V27" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="W27" s="35"/>
-      <c r="X27" s="29">
+      <c r="W27" s="28"/>
+      <c r="X27" s="12">
         <f xml:space="preserve"> 0.65 + (U27/100)</f>
         <v>0.77</v>
       </c>
       <c r="AB27" s="1"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="49" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="30"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="13"/>
       <c r="V28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="30"/>
-      <c r="T29" s="27"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="13"/>
+      <c r="T29" s="10"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -2412,534 +2593,805 @@
       <c r="AB29" s="1"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="37" t="s">
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="M30" s="39" t="s">
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="N30" s="39"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="30"/>
-      <c r="R30" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="S30" s="34"/>
-      <c r="T30" s="28">
+      <c r="N30" s="31"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="13"/>
+      <c r="R30" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="S30" s="30"/>
+      <c r="T30" s="11">
         <f xml:space="preserve"> R18*X27</f>
         <v>39.270000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="43" t="s">
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="M31" s="17" t="s">
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="30"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="13"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37" t="s">
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="M32" s="17" t="s">
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="N32" s="18" t="s">
+      <c r="N32" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="O32" s="20"/>
-      <c r="P32" s="32"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="15"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37" t="s">
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="M33" s="17" t="s">
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="N33" s="18" t="s">
+      <c r="N33" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="O33" s="20"/>
-      <c r="P33" s="32"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="15"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37" t="s">
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="M34" s="17" t="s">
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="N34" s="18" t="s">
+      <c r="N34" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="O34" s="20"/>
-      <c r="P34" s="32"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="15"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37" t="s">
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="M35" s="17" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="N35" s="18" t="s">
+      <c r="N35" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="O35" s="20"/>
-      <c r="P35" s="32"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="15"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37" t="s">
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="M36" s="17" t="s">
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="N36" s="18" t="s">
+      <c r="N36" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="O36" s="20"/>
-      <c r="P36" s="32"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="15"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37" t="s">
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="M37" s="17" t="s">
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="N37" s="18" t="s">
+      <c r="N37" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="O37" s="20"/>
-      <c r="P37" s="32"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="15"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37" t="s">
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="32"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="15"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37" t="s">
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="32"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="15"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37" t="s">
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="32"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="15"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37" t="s">
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="32"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="15"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37" t="s">
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="32"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="15"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37" t="s">
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="32"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="15"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37" t="s">
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="32"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="15"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37" t="s">
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="32"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="15"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="30"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="65"/>
+      <c r="P46" s="13"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="30"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="13"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="P48" s="33"/>
+      <c r="A48" s="83"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="84"/>
+      <c r="P48" s="16"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="P49" s="33"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="84"/>
+      <c r="P49" s="16"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="7"/>
-      <c r="P50" s="33"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="16"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P51" s="33"/>
+      <c r="A51" s="83"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="16"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P52" s="33"/>
+      <c r="A52" s="83"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="16"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="P53" s="33"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="16"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="41" t="s">
+      <c r="B54" s="56"/>
+      <c r="C54" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="P54" s="33"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="16"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="41" t="s">
+      <c r="B55" s="56"/>
+      <c r="C55" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="P55" s="33"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="16"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="41" t="s">
+      <c r="B56" s="56"/>
+      <c r="C56" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="P56" s="33"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="16"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="42" t="s">
+      <c r="A57" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="42"/>
-      <c r="C57" s="41" t="s">
+      <c r="B57" s="56"/>
+      <c r="C57" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="P57" s="33"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="84"/>
+      <c r="P57" s="16"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="41" t="s">
+      <c r="B58" s="56"/>
+      <c r="C58" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="P58" s="33"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="16"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="41" t="s">
+      <c r="B59" s="56"/>
+      <c r="C59" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="P59" s="33"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="16"/>
+    </row>
+    <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="87"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="88"/>
+      <c r="H60" s="88"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="88"/>
+      <c r="L60" s="88"/>
+      <c r="M60" s="88"/>
+      <c r="N60" s="88"/>
+      <c r="O60" s="89"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="97">
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="E35:K35"/>
+    <mergeCell ref="E34:K34"/>
+    <mergeCell ref="E33:K33"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="E31:K31"/>
+    <mergeCell ref="E45:K45"/>
+    <mergeCell ref="E44:K44"/>
+    <mergeCell ref="E43:K43"/>
+    <mergeCell ref="E42:K42"/>
+    <mergeCell ref="E41:K41"/>
+    <mergeCell ref="E40:K40"/>
+    <mergeCell ref="E39:K39"/>
+    <mergeCell ref="E38:K38"/>
+    <mergeCell ref="E37:K37"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
     <mergeCell ref="G4:M4"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -2956,88 +3408,6 @@
     <mergeCell ref="G7:M7"/>
     <mergeCell ref="G6:M6"/>
     <mergeCell ref="G5:M5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="E40:K40"/>
-    <mergeCell ref="E39:K39"/>
-    <mergeCell ref="E38:K38"/>
-    <mergeCell ref="E37:K37"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="E45:K45"/>
-    <mergeCell ref="E44:K44"/>
-    <mergeCell ref="E43:K43"/>
-    <mergeCell ref="E42:K42"/>
-    <mergeCell ref="E41:K41"/>
-    <mergeCell ref="E35:K35"/>
-    <mergeCell ref="E34:K34"/>
-    <mergeCell ref="E33:K33"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="E31:K31"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="U17:W17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>
